--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43207,6 +43207,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43244,6 +43244,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43279,6 +43279,41 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43314,6 +43314,41 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43349,6 +43349,43 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,41 @@
         <v>5200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43456,6 +43456,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>36600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,41 @@
         <v>36600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43526,6 +43526,41 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,41 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>10400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,6 +43596,41 @@
         <v>10400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>20700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,76 @@
         <v>20700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>69700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,76 @@
         <v>69700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>106500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>106700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,41 @@
         <v>106700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>91600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         <v>91600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>106700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,41 @@
         <v>106700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43876,6 +43876,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>90500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,76 @@
         <v>90500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>26600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43981,6 +43981,41 @@
         <v>26600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>90400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44016,6 +44016,41 @@
         <v>90400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>138000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2115"/>
+  <dimension ref="A1:I2116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74641,6 +74641,43 @@
         <v>138000</v>
       </c>
     </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2116"/>
+  <dimension ref="A1:I2117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74678,6 +74678,41 @@
         </is>
       </c>
     </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2117"/>
+  <dimension ref="A1:I2118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74713,6 +74713,41 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I2118" t="n">
+        <v>69300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2118"/>
+  <dimension ref="A1:I2119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74748,6 +74748,41 @@
         <v>69300</v>
       </c>
     </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>249600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2119"/>
+  <dimension ref="A1:I2120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74783,6 +74783,41 @@
         <v>249600</v>
       </c>
     </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>230700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2120"/>
+  <dimension ref="A1:I2121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74818,6 +74818,41 @@
         <v>230700</v>
       </c>
     </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>66700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2121"/>
+  <dimension ref="A1:I2122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74853,6 +74853,41 @@
         <v>66700</v>
       </c>
     </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>190300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2122"/>
+  <dimension ref="A1:I2123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74888,6 +74888,41 @@
         <v>190300</v>
       </c>
     </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2123"/>
+  <dimension ref="A1:I2124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74923,6 +74923,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2124"/>
+  <dimension ref="A1:I2125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74958,6 +74958,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>88000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2125"/>
+  <dimension ref="A1:I2126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74993,6 +74993,41 @@
         <v>88000</v>
       </c>
     </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75028,6 +75028,41 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>157000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75063,6 +75063,41 @@
         <v>157000</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75098,6 +75098,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>208600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7134.xlsx
+++ b/data/7134.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75133,6 +75133,41 @@
         <v>208600</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>PWF</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>30100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
